--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl13-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl13-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cxcr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>48.06441766666666</v>
+        <v>0.2087556666666667</v>
       </c>
       <c r="H2">
-        <v>144.193253</v>
+        <v>0.626267</v>
       </c>
       <c r="I2">
-        <v>0.9481034702552612</v>
+        <v>0.004212716022507852</v>
       </c>
       <c r="J2">
-        <v>0.950244165855522</v>
+        <v>0.004233737959305679</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N2">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q2">
-        <v>11.47743046640378</v>
+        <v>0.2871921291555556</v>
       </c>
       <c r="R2">
-        <v>103.296874197634</v>
+        <v>2.5847291624</v>
       </c>
       <c r="S2">
-        <v>0.1140471058240424</v>
+        <v>0.001928298954906052</v>
       </c>
       <c r="T2">
-        <v>0.1143046095093672</v>
+        <v>0.001937921388163069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,75 +587,75 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.2087556666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.626267</v>
+      </c>
+      <c r="I3">
+        <v>0.004212716022507852</v>
+      </c>
+      <c r="J3">
+        <v>0.004233737959305679</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>48.06441766666666</v>
-      </c>
-      <c r="H3">
-        <v>144.193253</v>
-      </c>
-      <c r="I3">
-        <v>0.9481034702552612</v>
-      </c>
-      <c r="J3">
-        <v>0.950244165855522</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N3">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q3">
-        <v>30.78162264122988</v>
+        <v>0.3402307509707778</v>
       </c>
       <c r="R3">
-        <v>277.034603771069</v>
+        <v>3.062076758737001</v>
       </c>
       <c r="S3">
-        <v>0.3058659327169112</v>
+        <v>0.002284417067601801</v>
       </c>
       <c r="T3">
-        <v>0.3065565386233113</v>
+        <v>0.00229581657114261</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,10 +670,10 @@
         <v>144.193253</v>
       </c>
       <c r="I4">
-        <v>0.9481034702552612</v>
+        <v>0.9699460888896084</v>
       </c>
       <c r="J4">
-        <v>0.950244165855522</v>
+        <v>0.9747862312749473</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N4">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q4">
-        <v>53.15583336567899</v>
+        <v>66.1238215312889</v>
       </c>
       <c r="R4">
-        <v>478.402500291111</v>
+        <v>595.1143937816</v>
       </c>
       <c r="S4">
-        <v>0.5281904317143076</v>
+        <v>0.4439762897684276</v>
       </c>
       <c r="T4">
-        <v>0.5293830177228434</v>
+        <v>0.4461917824466379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,93 +711,93 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.755309666666667</v>
+        <v>48.06441766666666</v>
       </c>
       <c r="H5">
-        <v>5.265929</v>
+        <v>144.193253</v>
       </c>
       <c r="I5">
-        <v>0.03462468218965708</v>
+        <v>0.9699460888896084</v>
       </c>
       <c r="J5">
-        <v>0.03470286026530938</v>
+        <v>0.9747862312749473</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N5">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q5">
-        <v>0.4191550761291111</v>
+        <v>78.33556414933145</v>
       </c>
       <c r="R5">
-        <v>3.772395685162</v>
+        <v>705.0200773439831</v>
       </c>
       <c r="S5">
-        <v>0.004164993503023986</v>
+        <v>0.5259697991211808</v>
       </c>
       <c r="T5">
-        <v>0.004174397522254753</v>
+        <v>0.5285944488283094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.755309666666667</v>
+        <v>0.245141</v>
       </c>
       <c r="H6">
-        <v>5.265929</v>
+        <v>0.735423</v>
       </c>
       <c r="I6">
-        <v>0.03462468218965708</v>
+        <v>0.004946976697512072</v>
       </c>
       <c r="J6">
-        <v>0.03470286026530938</v>
+        <v>0.004971662679410635</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,104 +806,104 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.6404243333333333</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N6">
-        <v>1.921273</v>
+        <v>4.1272</v>
       </c>
       <c r="O6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q6">
-        <v>1.124143023068555</v>
+        <v>0.3372486450666667</v>
       </c>
       <c r="R6">
-        <v>10.117287207617</v>
+        <v>3.0352378056</v>
       </c>
       <c r="S6">
-        <v>0.01117020562124381</v>
+        <v>0.002264394263650924</v>
       </c>
       <c r="T6">
-        <v>0.01119542650775841</v>
+        <v>0.002275693851100327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.755309666666667</v>
+        <v>0.245141</v>
       </c>
       <c r="H7">
-        <v>5.265929</v>
+        <v>0.735423</v>
       </c>
       <c r="I7">
-        <v>0.03462468218965708</v>
+        <v>0.004946976697512072</v>
       </c>
       <c r="J7">
-        <v>0.03470286026530938</v>
+        <v>0.004971662679410635</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105929</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N7">
-        <v>3.317787</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q7">
-        <v>1.941247864347</v>
+        <v>0.3995317006503334</v>
       </c>
       <c r="R7">
-        <v>17.471230779123</v>
+        <v>3.595785305853001</v>
       </c>
       <c r="S7">
-        <v>0.01928948306538928</v>
+        <v>0.002682582433861148</v>
       </c>
       <c r="T7">
-        <v>0.01933303623529621</v>
+        <v>0.002695968828310308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,60 +912,60 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.342617</v>
+        <v>0.7381525</v>
       </c>
       <c r="H8">
-        <v>0.685234</v>
+        <v>1.476305</v>
       </c>
       <c r="I8">
-        <v>0.006758354359377276</v>
+        <v>0.01489601175123818</v>
       </c>
       <c r="J8">
-        <v>0.004515742569077367</v>
+        <v>0.009980229707158081</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N8">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q8">
-        <v>0.08181442707533333</v>
+        <v>1.015500999333333</v>
       </c>
       <c r="R8">
-        <v>0.490886562452</v>
+        <v>6.093005996</v>
       </c>
       <c r="S8">
-        <v>0.0008129605881652995</v>
+        <v>0.006818395481374345</v>
       </c>
       <c r="T8">
-        <v>0.0005431974323551863</v>
+        <v>0.004568280038629018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,78 +974,78 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.342617</v>
+        <v>0.7381525</v>
       </c>
       <c r="H9">
-        <v>0.685234</v>
+        <v>1.476305</v>
       </c>
       <c r="I9">
-        <v>0.006758354359377276</v>
+        <v>0.01489601175123818</v>
       </c>
       <c r="J9">
-        <v>0.004515742569077367</v>
+        <v>0.009980229707158081</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N9">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q9">
-        <v>0.2194202638136666</v>
+        <v>1.203043651059167</v>
       </c>
       <c r="R9">
-        <v>1.316521582882</v>
+        <v>7.218261906355001</v>
       </c>
       <c r="S9">
-        <v>0.002180300383465306</v>
+        <v>0.008077616269863835</v>
       </c>
       <c r="T9">
-        <v>0.001456815480728534</v>
+        <v>0.005411949668529063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.342617</v>
+        <v>0.2972333333333333</v>
       </c>
       <c r="H10">
-        <v>0.685234</v>
+        <v>0.8917</v>
       </c>
       <c r="I10">
-        <v>0.006758354359377276</v>
+        <v>0.005998206639133552</v>
       </c>
       <c r="J10">
-        <v>0.004515742569077367</v>
+        <v>0.006028138379178328</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,214 +1054,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N10">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q10">
-        <v>0.378910076193</v>
+        <v>0.4089138044444445</v>
       </c>
       <c r="R10">
-        <v>2.273460457158</v>
+        <v>3.68022424</v>
       </c>
       <c r="S10">
-        <v>0.003765093387746671</v>
+        <v>0.0027455768515501</v>
       </c>
       <c r="T10">
-        <v>0.002515729655993647</v>
+        <v>0.002759277595378662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.5329849999999999</v>
+        <v>0.2972333333333333</v>
       </c>
       <c r="H11">
-        <v>1.598955</v>
+        <v>0.8917</v>
       </c>
       <c r="I11">
-        <v>0.01051349319570452</v>
+        <v>0.005998206639133552</v>
       </c>
       <c r="J11">
-        <v>0.0105372313100913</v>
+        <v>0.006028138379178328</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N11">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q11">
-        <v>0.1272729094433333</v>
+        <v>0.4844319765222223</v>
       </c>
       <c r="R11">
-        <v>1.14545618499</v>
+        <v>4.359887788700001</v>
       </c>
       <c r="S11">
-        <v>0.001264665206581349</v>
+        <v>0.003252629787583452</v>
       </c>
       <c r="T11">
-        <v>0.001267520657835844</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.5329849999999999</v>
-      </c>
-      <c r="H12">
-        <v>1.598955</v>
-      </c>
-      <c r="I12">
-        <v>0.01051349319570452</v>
-      </c>
-      <c r="J12">
-        <v>0.0105372313100913</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N12">
-        <v>1.921273</v>
-      </c>
-      <c r="O12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q12">
-        <v>0.3413365633016666</v>
-      </c>
-      <c r="R12">
-        <v>3.072029069715</v>
-      </c>
-      <c r="S12">
-        <v>0.003391738880094263</v>
-      </c>
-      <c r="T12">
-        <v>0.003399396989916281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.5329849999999999</v>
-      </c>
-      <c r="H13">
-        <v>1.598955</v>
-      </c>
-      <c r="I13">
-        <v>0.01051349319570452</v>
-      </c>
-      <c r="J13">
-        <v>0.0105372313100913</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>1.105929</v>
-      </c>
-      <c r="N13">
-        <v>3.317787</v>
-      </c>
-      <c r="O13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q13">
-        <v>0.5894435680649999</v>
-      </c>
-      <c r="R13">
-        <v>5.304992112584999</v>
-      </c>
-      <c r="S13">
-        <v>0.005857089109028913</v>
-      </c>
-      <c r="T13">
-        <v>0.005870313662339174</v>
+        <v>0.003268860783799666</v>
       </c>
     </row>
   </sheetData>
